--- a/results/pvalue_OFFSIDES_rare_enzyme_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_enzyme_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.253</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.347</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.231</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.231</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.335</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>3.374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>4.324</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.412</t>
+          <t>2.832</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.875</t>
+          <t>6.025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
